--- a/Class-6/myportfolio.xlsx
+++ b/Class-6/myportfolio.xlsx
@@ -4423,19 +4423,19 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>211.9600067138672</v>
+        <v>212.12890625</v>
       </c>
       <c r="C51" t="n">
-        <v>165.7599945068359</v>
+        <v>165.8200073242188</v>
       </c>
       <c r="D51" t="n">
-        <v>380.0899963378906</v>
+        <v>380.239990234375</v>
       </c>
       <c r="E51" t="n">
-        <v>553.9400024414062</v>
+        <v>554.2000732421875</v>
       </c>
       <c r="F51" t="n">
-        <v>241.3854064941406</v>
+        <v>241.8300018310547</v>
       </c>
       <c r="G51" t="n">
         <v>216.8394012451172</v>
@@ -4483,19 +4483,19 @@
         <v>248.125</v>
       </c>
       <c r="V51" t="n">
-        <v>39331400</v>
+        <v>39435224</v>
       </c>
       <c r="W51" t="n">
-        <v>10309849</v>
+        <v>10349152</v>
       </c>
       <c r="X51" t="n">
-        <v>12574341</v>
+        <v>12614805</v>
       </c>
       <c r="Y51" t="n">
-        <v>42978863</v>
+        <v>43209103</v>
       </c>
       <c r="Z51" t="n">
-        <v>94904562</v>
+        <v>95196272</v>
       </c>
     </row>
   </sheetData>

--- a/Class-6/myportfolio.xlsx
+++ b/Class-6/myportfolio.xlsx
@@ -4403,19 +4403,19 @@
         <v>247.2200012207031</v>
       </c>
       <c r="V50" t="n">
-        <v>62466400</v>
+        <v>62547500</v>
       </c>
       <c r="W50" t="n">
-        <v>19847600</v>
+        <v>19880100</v>
       </c>
       <c r="X50" t="n">
-        <v>24213900</v>
+        <v>24253600</v>
       </c>
       <c r="Y50" t="n">
-        <v>69437200</v>
+        <v>69588200</v>
       </c>
       <c r="Z50" t="n">
-        <v>140904000</v>
+        <v>142215700</v>
       </c>
     </row>
     <row r="51">
@@ -4423,19 +4423,19 @@
         <v>45729</v>
       </c>
       <c r="B51" t="n">
-        <v>212.12890625</v>
+        <v>210.2700042724609</v>
       </c>
       <c r="C51" t="n">
-        <v>165.8200073242188</v>
+        <v>164.6399993896484</v>
       </c>
       <c r="D51" t="n">
-        <v>380.239990234375</v>
+        <v>378.5</v>
       </c>
       <c r="E51" t="n">
-        <v>554.2000732421875</v>
+        <v>551.4500122070312</v>
       </c>
       <c r="F51" t="n">
-        <v>241.8300018310547</v>
+        <v>239.5776977539062</v>
       </c>
       <c r="G51" t="n">
         <v>216.8394012451172</v>
@@ -4453,7 +4453,7 @@
         <v>248.2899932861328</v>
       </c>
       <c r="L51" t="n">
-        <v>210.5001068115234</v>
+        <v>210.2200927734375</v>
       </c>
       <c r="M51" t="n">
         <v>164.0700073242188</v>
@@ -4483,19 +4483,19 @@
         <v>248.125</v>
       </c>
       <c r="V51" t="n">
-        <v>39435224</v>
+        <v>42789556</v>
       </c>
       <c r="W51" t="n">
-        <v>10349152</v>
+        <v>11200368</v>
       </c>
       <c r="X51" t="n">
-        <v>12614805</v>
+        <v>13620160</v>
       </c>
       <c r="Y51" t="n">
-        <v>43209103</v>
+        <v>47863934</v>
       </c>
       <c r="Z51" t="n">
-        <v>95196272</v>
+        <v>100517679</v>
       </c>
     </row>
   </sheetData>
